--- a/medicine/Pharmacie/Chondroprotecteur/Chondroprotecteur.xlsx
+++ b/medicine/Pharmacie/Chondroprotecteur/Chondroprotecteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chondroprotecteur est une substance qui protège les cartilages des articulations ; ces substances sont indiquées dans le traitement de maladies comme l'arthrose[réf. nécessaire].
 </t>
@@ -511,7 +523,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une substance peut être considérée comme chondroprotectrice quand elle répond à plusieurs de ces critères :[réf. nécessaire]
 elle doit aider la synthèse macromoléculaire des cellules du cartilage ;
@@ -549,7 +563,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Jason Theodosakis, Connaître, prévenir, soigner l’arthrose, éditions de Fallois, 1997
 (en) S Reichenbach, R Sterchi, M Scherer, Meta-analysis: Chondroitin for osteoarthritis of the knee or hip, Ann Intern Med, 2007;146;580-590
